--- a/docs/componentes/Descripcion_de_Bungalows.xlsx
+++ b/docs/componentes/Descripcion_de_Bungalows.xlsx
@@ -86,9 +86,6 @@
     <t>Ambas con ventilador y baño completo y teléfono.</t>
   </si>
   <si>
-    <t xml:space="preserve">BUNGALOW CLÁSICO : 31 A - 31 B </t>
-  </si>
-  <si>
     <t>Ubicación: sobre la playa pero sin vista al mar</t>
   </si>
   <si>
@@ -377,6 +374,22 @@
   </si>
   <si>
     <t>Capacidad mínima 8 personas, capacidad máxima 11 personas.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BUNGALOW CLÁSICO : 31 A - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">31 B </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -790,7 +803,7 @@
   <dimension ref="A1:O81"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O75" sqref="O75"/>
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -800,7 +813,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -817,7 +830,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -834,14 +847,14 @@
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="H4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -851,7 +864,7 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -859,7 +872,7 @@
       <c r="E5" s="2"/>
       <c r="G5" s="10"/>
       <c r="H5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -873,10 +886,10 @@
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -960,14 +973,14 @@
     </row>
     <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="H19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="13"/>
@@ -977,14 +990,14 @@
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="H20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1007,14 +1020,14 @@
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="H22" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -1099,7 +1112,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1108,7 +1121,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="6"/>
       <c r="H34" s="1" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
@@ -1118,7 +1131,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1127,7 +1140,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="6"/>
       <c r="H35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -1141,26 +1154,26 @@
     </row>
     <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -1168,10 +1181,10 @@
         <v>18</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -1179,10 +1192,10 @@
         <v>9</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -1209,7 +1222,7 @@
     </row>
     <row r="46" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1217,7 +1230,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="H46" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -1227,7 +1240,7 @@
     </row>
     <row r="47" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1235,7 +1248,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="H47" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -1257,14 +1270,14 @@
     </row>
     <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="H49" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
@@ -1273,42 +1286,42 @@
     </row>
     <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1333,7 +1346,7 @@
     </row>
     <row r="58" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1341,7 +1354,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="H58" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -1351,7 +1364,7 @@
     </row>
     <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1359,7 +1372,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="H59" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -1378,10 +1391,10 @@
     </row>
     <row r="61" spans="1:13" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
@@ -1391,39 +1404,39 @@
     </row>
     <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>9</v>
@@ -1431,7 +1444,7 @@
     </row>
     <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>10</v>
@@ -1442,7 +1455,7 @@
     </row>
     <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1452,7 +1465,7 @@
     </row>
     <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1470,7 +1483,7 @@
     </row>
     <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1481,12 +1494,12 @@
     </row>
     <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">

--- a/docs/componentes/Descripcion_de_Bungalows.xlsx
+++ b/docs/componentes/Descripcion_de_Bungalows.xlsx
@@ -377,7 +377,28 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">BUNGALOW CLÁSICO : 31 A - </t>
+      <t xml:space="preserve">BUNGALOW CLÁSICO : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>31 A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
     </r>
     <r>
       <rPr>
@@ -802,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/docs/componentes/Descripcion_de_Bungalows.xlsx
+++ b/docs/componentes/Descripcion_de_Bungalows.xlsx
@@ -305,8 +305,53 @@
     <t>BUNGALOW CLÁSICO: 36</t>
   </si>
   <si>
-    <r>
-      <t>BUNGALOW MATRIMONIAL : 5 -</t>
+    <t>*El precio es por persona e incluye desayuno buffet, almuerzo a la carta (entrada, segundo y postre), cena a la carta (entrada, segundo y postre)</t>
+  </si>
+  <si>
+    <t>(31A)</t>
+  </si>
+  <si>
+    <t>(31B)</t>
+  </si>
+  <si>
+    <t>Capacidad mínima 2 personas, capacidad máxima 4 personas.</t>
+  </si>
+  <si>
+    <t>Capacidad mínima 6 personas, capacidad máxima 8 personas.</t>
+  </si>
+  <si>
+    <t>Capacidad mínima 2 personas, capacidad máxima 3 personas.</t>
+  </si>
+  <si>
+    <t>Capacidad mínima 4 personas, capacidad máxima 5 personas.</t>
+  </si>
+  <si>
+    <t>Capacidad mínima 8 personas, capacidad máxima 11 personas.</t>
+  </si>
+  <si>
+    <r>
+      <t>BUNGALOW MATRIMONIAL :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> -</t>
     </r>
     <r>
       <rPr>
@@ -352,30 +397,6 @@
     </r>
   </si>
   <si>
-    <t>*El precio es por persona e incluye desayuno buffet, almuerzo a la carta (entrada, segundo y postre), cena a la carta (entrada, segundo y postre)</t>
-  </si>
-  <si>
-    <t>(31A)</t>
-  </si>
-  <si>
-    <t>(31B)</t>
-  </si>
-  <si>
-    <t>Capacidad mínima 2 personas, capacidad máxima 4 personas.</t>
-  </si>
-  <si>
-    <t>Capacidad mínima 6 personas, capacidad máxima 8 personas.</t>
-  </si>
-  <si>
-    <t>Capacidad mínima 2 personas, capacidad máxima 3 personas.</t>
-  </si>
-  <si>
-    <t>Capacidad mínima 4 personas, capacidad máxima 5 personas.</t>
-  </si>
-  <si>
-    <t>Capacidad mínima 8 personas, capacidad máxima 11 personas.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">BUNGALOW CLÁSICO : </t>
     </r>
@@ -398,18 +419,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">31 B </t>
+      <t xml:space="preserve"> - 31 B </t>
     </r>
   </si>
 </sst>
@@ -417,7 +427,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,6 +488,13 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -529,10 +546,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -823,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -833,38 +850,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="A1" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -907,10 +924,10 @@
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1001,10 +1018,10 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="H19" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="13"/>
+      <c r="J19" s="11"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1041,14 +1058,14 @@
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="H22" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -1144,9 +1161,9 @@
       <c r="H34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
@@ -1175,10 +1192,10 @@
     </row>
     <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -1205,7 +1222,7 @@
         <v>24</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -1216,7 +1233,7 @@
         <v>25</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -1291,14 +1308,14 @@
     </row>
     <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="H49" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
@@ -1412,10 +1429,10 @@
     </row>
     <row r="61" spans="1:13" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
@@ -1504,7 +1521,7 @@
     </row>
     <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">

--- a/docs/componentes/Descripcion_de_Bungalows.xlsx
+++ b/docs/componentes/Descripcion_de_Bungalows.xlsx
@@ -330,74 +330,6 @@
   </si>
   <si>
     <r>
-      <t>BUNGALOW MATRIMONIAL :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 5</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> -</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 6 - 7 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>- 8 -</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 9 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>- 14 - 15 - 16 - 17 -18</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">BUNGALOW CLÁSICO : </t>
     </r>
     <r>
@@ -419,7 +351,65 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> - 31 B </t>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">31 B </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BUNGALOW MATRIMONIAL : 5 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">6 - 7 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>- 8 -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 9 - 14</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - 15 - 16 - 17 -18</t>
     </r>
   </si>
 </sst>
@@ -840,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1018,7 +1008,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="H19" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="11"/>
@@ -1159,7 +1149,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="6"/>
       <c r="H34" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>

--- a/docs/componentes/Descripcion_de_Bungalows.xlsx
+++ b/docs/componentes/Descripcion_de_Bungalows.xlsx
@@ -367,7 +367,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">BUNGALOW MATRIMONIAL : 5 - </t>
+      <t xml:space="preserve">BUNGALOW MATRIMONIAL : </t>
     </r>
     <r>
       <rPr>
@@ -378,6 +378,27 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
+      <t xml:space="preserve">5 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
       <t xml:space="preserve">6 - 7 </t>
     </r>
     <r>
@@ -399,17 +420,38 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> 9 - 14</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - 15 - 16 - 17 -18</t>
+      <t xml:space="preserve"> 9 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>14 -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 15</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - 16 - 17 -18</t>
     </r>
   </si>
 </sst>
@@ -830,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/docs/componentes/Descripcion_de_Bungalows.xlsx
+++ b/docs/componentes/Descripcion_de_Bungalows.xlsx
@@ -107,9 +107,6 @@
     <t xml:space="preserve">BUNGALOW CLÁSICO: 35 </t>
   </si>
   <si>
-    <t xml:space="preserve">HABITACIÓN CON VISTA A LA PISCINA DE 19 A 30 </t>
-  </si>
-  <si>
     <t>Ubicada en segunda fila al lado del Gimnasio.</t>
   </si>
   <si>
@@ -452,6 +449,32 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve"> - 16 - 17 -18</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HABITACIÓN CON VISTA A LA PISCINA DE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> A 30 </t>
     </r>
   </si>
 </sst>
@@ -566,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -582,6 +605,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -872,18 +896,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L69" sqref="L69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="6" width="11.42578125" style="3"/>
+    <col min="7" max="7" width="21.7109375" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -900,7 +926,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -917,14 +943,14 @@
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="H4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -934,7 +960,7 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -942,7 +968,7 @@
       <c r="E5" s="2"/>
       <c r="G5" s="10"/>
       <c r="H5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -956,10 +982,10 @@
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1043,14 +1069,14 @@
     </row>
     <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="H19" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="11"/>
@@ -1060,14 +1086,14 @@
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="H20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1090,14 +1116,14 @@
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="H22" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -1182,7 +1208,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1191,7 +1217,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="6"/>
       <c r="H34" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
@@ -1201,7 +1227,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1210,7 +1236,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="6"/>
       <c r="H35" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -1224,10 +1250,10 @@
     </row>
     <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -1254,7 +1280,7 @@
         <v>24</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -1265,7 +1291,7 @@
         <v>25</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -1299,18 +1325,18 @@
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-      <c r="H46" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
+      <c r="H46" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
     <row r="47" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1318,7 +1344,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="H47" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -1340,14 +1366,14 @@
     </row>
     <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="H49" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
@@ -1356,42 +1382,42 @@
     </row>
     <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1415,8 +1441,8 @@
       <c r="H57" s="4"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>38</v>
+      <c r="A58" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1424,7 +1450,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="H58" s="1" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -1434,7 +1460,7 @@
     </row>
     <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1442,7 +1468,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="H59" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -1461,10 +1487,10 @@
     </row>
     <row r="61" spans="1:13" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
@@ -1474,39 +1500,39 @@
     </row>
     <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>9</v>
@@ -1514,7 +1540,7 @@
     </row>
     <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>10</v>
@@ -1525,7 +1551,7 @@
     </row>
     <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1535,7 +1561,7 @@
     </row>
     <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1553,7 +1579,7 @@
     </row>
     <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1564,12 +1590,12 @@
     </row>
     <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">

--- a/docs/componentes/Descripcion_de_Bungalows.xlsx
+++ b/docs/componentes/Descripcion_de_Bungalows.xlsx
@@ -385,7 +385,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">- </t>
+      <t>- 6 - 7 - 8 -</t>
     </r>
     <r>
       <rPr>
@@ -396,17 +396,22 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">6 - 7 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>- 8 -</t>
+      <t xml:space="preserve"> 9 - 14 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>- 15 - 16 - 17 -18</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HABITACIÓN CON VISTA A LA PISCINA </t>
     </r>
     <r>
       <rPr>
@@ -417,17 +422,17 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> 9 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>14 -</t>
+      <t>19 20 21</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 22 23 24</t>
     </r>
     <r>
       <rPr>
@@ -438,43 +443,17 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> 15</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - 16 - 17 -18</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">HABITACIÓN CON VISTA A LA PISCINA DE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>19</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> A 30 </t>
+      <t xml:space="preserve"> 25 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>26 27 28 29 30</t>
     </r>
   </si>
 </sst>
@@ -897,7 +876,7 @@
   <dimension ref="A1:O81"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L69" sqref="L69"/>
+      <selection activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1364,7 +1343,7 @@
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
     </row>
-    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>67</v>
       </c>
@@ -1380,7 +1359,7 @@
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
     </row>
-    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>27</v>
       </c>
@@ -1388,7 +1367,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>29</v>
       </c>
@@ -1396,7 +1375,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>31</v>
       </c>
@@ -1404,7 +1383,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>33</v>
       </c>
@@ -1412,7 +1391,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>35</v>
       </c>
@@ -1420,7 +1399,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>9</v>
       </c>
@@ -1428,7 +1407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>10</v>
       </c>
@@ -1436,11 +1415,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
         <v>37</v>
       </c>
@@ -1457,8 +1436,9 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
-    </row>
-    <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N58" s="2"/>
+    </row>
+    <row r="59" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>52</v>
       </c>
@@ -1475,8 +1455,9 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
-    </row>
-    <row r="60" spans="1:13" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N59" s="2"/>
+    </row>
+    <row r="60" spans="1:14" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="H60" s="4"/>
       <c r="I60" s="3"/>
@@ -1485,7 +1466,7 @@
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
     </row>
-    <row r="61" spans="1:13" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>68</v>
       </c>
@@ -1498,7 +1479,7 @@
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
     </row>
-    <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>38</v>
       </c>
@@ -1506,7 +1487,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>39</v>
       </c>
@@ -1514,7 +1495,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>41</v>
       </c>

--- a/docs/componentes/Descripcion_de_Bungalows.xlsx
+++ b/docs/componentes/Descripcion_de_Bungalows.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DaniyDiegoWeb\docs\componentes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mis Proyectos\DaniyDiegoWeb\docs\componentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -241,6 +241,76 @@
     </r>
   </si>
   <si>
+    <t>USD 192 por persona (3dias/2noches)</t>
+  </si>
+  <si>
+    <t>Ubicada en segunda fila y segundo piso al lado del Gimnasio.</t>
+  </si>
+  <si>
+    <t>BUNGALOW CLÁSICO: 36</t>
+  </si>
+  <si>
+    <t>*El precio es por persona e incluye desayuno buffet, almuerzo a la carta (entrada, segundo y postre), cena a la carta (entrada, segundo y postre)</t>
+  </si>
+  <si>
+    <t>(31A)</t>
+  </si>
+  <si>
+    <t>(31B)</t>
+  </si>
+  <si>
+    <t>Capacidad mínima 2 personas, capacidad máxima 4 personas.</t>
+  </si>
+  <si>
+    <t>Capacidad mínima 6 personas, capacidad máxima 8 personas.</t>
+  </si>
+  <si>
+    <t>Capacidad mínima 2 personas, capacidad máxima 3 personas.</t>
+  </si>
+  <si>
+    <t>Capacidad mínima 4 personas, capacidad máxima 5 personas.</t>
+  </si>
+  <si>
+    <t>Capacidad mínima 8 personas, capacidad máxima 11 personas.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BUNGALOW CLÁSICO : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>31 A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">31 B </t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>BUNGALOWS FAMILIARES :</t>
     </r>
@@ -253,22 +323,12 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> 4 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>- 10 - 11 - 12 - 13</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">HABITACIÓN ESTÁNDAR 5A - 6A - 7A - 8A - </t>
+      <t xml:space="preserve"> 4 - 10 - 11 - 12 - 13</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BUNGALOW MATRIMONIAL :</t>
     </r>
     <r>
       <rPr>
@@ -279,6 +339,74 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
+      <t xml:space="preserve"> 5 - 6 - 7</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - 8 -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 9 - 14 - 15 - 16</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - 17 -18</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>HABITACIÓN ESTÁNDAR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 5A - 6A - 7A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - 8A - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
       <t>9A</t>
     </r>
     <r>
@@ -293,41 +421,8 @@
     </r>
   </si>
   <si>
-    <t>USD 192 por persona (3dias/2noches)</t>
-  </si>
-  <si>
-    <t>Ubicada en segunda fila y segundo piso al lado del Gimnasio.</t>
-  </si>
-  <si>
-    <t>BUNGALOW CLÁSICO: 36</t>
-  </si>
-  <si>
-    <t>*El precio es por persona e incluye desayuno buffet, almuerzo a la carta (entrada, segundo y postre), cena a la carta (entrada, segundo y postre)</t>
-  </si>
-  <si>
-    <t>(31A)</t>
-  </si>
-  <si>
-    <t>(31B)</t>
-  </si>
-  <si>
-    <t>Capacidad mínima 2 personas, capacidad máxima 4 personas.</t>
-  </si>
-  <si>
-    <t>Capacidad mínima 6 personas, capacidad máxima 8 personas.</t>
-  </si>
-  <si>
-    <t>Capacidad mínima 2 personas, capacidad máxima 3 personas.</t>
-  </si>
-  <si>
-    <t>Capacidad mínima 4 personas, capacidad máxima 5 personas.</t>
-  </si>
-  <si>
-    <t>Capacidad mínima 8 personas, capacidad máxima 11 personas.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">BUNGALOW CLÁSICO : </t>
+    <r>
+      <t xml:space="preserve">HABITACIÓN CON VISTA A LA PISCINA </t>
     </r>
     <r>
       <rPr>
@@ -338,17 +433,17 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>31 A</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
+      <t>19 20 21</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 22 23 24 </t>
     </r>
     <r>
       <rPr>
@@ -359,101 +454,17 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">31 B </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">BUNGALOW MATRIMONIAL : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">5 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>- 6 - 7 - 8 -</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 9 - 14 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>- 15 - 16 - 17 -18</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">HABITACIÓN CON VISTA A LA PISCINA </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>19 20 21</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 22 23 24</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 25 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>26 27 28 29 30</t>
+      <t>25 26 27</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 28 29 30</t>
     </r>
   </si>
 </sst>
@@ -551,7 +562,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99FF99"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,9 +593,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,9 +604,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF99FF66"/>
       <color rgb="FF99FF99"/>
       <color rgb="FFCCFF99"/>
-      <color rgb="FF99FF66"/>
       <color rgb="FFFF99CC"/>
     </mruColors>
   </colors>
@@ -873,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O81"/>
+  <dimension ref="A3:O83"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L67" sqref="L67"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -886,721 +897,721 @@
     <col min="8" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="H4" s="1" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="H6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="1" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="10"/>
+        <v>62</v>
+      </c>
       <c r="H9" s="4" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C11" s="10"/>
       <c r="H11" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-    </row>
     <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="H19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+      <c r="A19" s="4"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="H21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="H20" s="1" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="H22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="H22" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
       <c r="H24" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-    </row>
     <row r="33" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+      <c r="A33" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
+      <c r="A34" s="4"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="4"/>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="1" t="s">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-    </row>
-    <row r="36" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
     </row>
     <row r="38" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A38" s="4"/>
+      <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H45" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-    </row>
-    <row r="45" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-    </row>
     <row r="46" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="4"/>
+    </row>
+    <row r="47" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+    </row>
+    <row r="48" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="H46" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-    </row>
-    <row r="47" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="H48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="H47" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-    </row>
-    <row r="48" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-    </row>
-    <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="H49" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="H49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="A50" s="5"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>29</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
       <c r="H51" s="4" t="s">
-        <v>29</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="H58" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
+    <row r="59" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="H58" s="1" t="s">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="H60" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-    </row>
-    <row r="59" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+    </row>
+    <row r="61" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="H59" s="1" t="s">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="H61" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-    </row>
-    <row r="60" spans="1:14" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="1:14" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H61" s="4" t="s">
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+    </row>
+    <row r="62" spans="1:14" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="1:14" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="H63" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
     </row>
     <row r="64" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="H69" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="7"/>
-    </row>
-    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="7"/>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-    </row>
-    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-    </row>
-    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-    </row>
-    <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I74" s="10"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
     </row>
     <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>42</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" s="10"/>
     </row>
     <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
         <v>10</v>
       </c>
     </row>
